--- a/kata-dosbox-agile/docs/Procut Backlog Pentagon DOSBox.xlsx
+++ b/kata-dosbox-agile/docs/Procut Backlog Pentagon DOSBox.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Statusliste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$3:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Backlog!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -23,7 +23,7 @@
     <author>René Anderes</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,10 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
-  <si>
-    <t>Product Backlog Pentagon DOSBox</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Story ID</t>
   </si>
@@ -287,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -304,13 +301,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -354,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -382,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -694,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -714,278 +701,341 @@
     <col min="11" max="11" width="12.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>63</v>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9">
+        <v>5</v>
+      </c>
+      <c r="K2" s="9">
+        <f>ROUND((H2+J2+I2)/E2,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>5</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K29" si="0">ROUND((H3+J3+I3)/E3,1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
       </c>
       <c r="I4" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4" s="9">
-        <f>ROUND((H4+J4+I4)/E4,1)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9">
-        <v>3</v>
-      </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
         <v>1</v>
       </c>
-      <c r="I5" s="9">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9">
-        <v>5</v>
-      </c>
       <c r="K5" s="9">
-        <f t="shared" ref="K5:K31" si="0">ROUND((H5+J5+I5)/E5,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="9">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H6" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="9">
         <v>8</v>
       </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
       <c r="G7" s="9" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H7" s="9">
         <v>3</v>
       </c>
       <c r="I7" s="9">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="9">
-        <v>8</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="9">
-        <v>3</v>
-      </c>
-      <c r="I8" s="9">
-        <v>3</v>
-      </c>
-      <c r="J8" s="9">
-        <v>3</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>29</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>42</v>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="9">
         <v>3</v>
@@ -998,192 +1048,192 @@
       </c>
       <c r="K10" s="9">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" s="9">
         <v>5</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="9">
         <v>4</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E12" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="9">
         <v>3</v>
       </c>
       <c r="I12" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E13" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E14" s="9">
         <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E15" s="9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J15" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E16" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="9">
         <v>5</v>
@@ -1192,64 +1242,64 @@
         <v>5</v>
       </c>
       <c r="J16" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="9">
+        <v>3</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="9">
         <v>13</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="9">
-        <v>6</v>
-      </c>
-      <c r="I17" s="9">
-        <v>7</v>
-      </c>
-      <c r="J17" s="9">
-        <v>5</v>
-      </c>
-      <c r="K17" s="9">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="9">
-        <v>8</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="9">
         <v>5</v>
@@ -1258,151 +1308,133 @@
         <v>5</v>
       </c>
       <c r="J18" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="0"/>
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5</v>
+      </c>
+      <c r="I19" s="9">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9">
+        <v>5</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5</v>
+      </c>
+      <c r="K20" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="9">
-        <v>5</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="9">
-        <v>3</v>
-      </c>
-      <c r="I19" s="9">
-        <v>2</v>
-      </c>
-      <c r="J19" s="9">
-        <v>2</v>
-      </c>
-      <c r="K19" s="9">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="9">
-        <v>13</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9">
-        <v>5</v>
-      </c>
-      <c r="I20" s="9">
-        <v>5</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="9">
         <v>4</v>
       </c>
-      <c r="K20" s="9">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="9">
-        <v>5</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="9">
-        <v>5</v>
-      </c>
-      <c r="I21" s="9">
-        <v>5</v>
-      </c>
-      <c r="J21" s="9">
-        <v>5</v>
-      </c>
-      <c r="K21" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="K21" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="9">
         <v>4</v>
@@ -1414,19 +1446,19 @@
     </row>
     <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="9">
         <v>4</v>
@@ -1438,19 +1470,19 @@
     </row>
     <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="9">
         <v>4</v>
@@ -1460,24 +1492,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K26" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1486,19 +1513,19 @@
     </row>
     <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="9">
         <v>4</v>
@@ -1508,40 +1535,45 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H28" s="9">
+        <v>4</v>
       </c>
       <c r="K28" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="9">
         <v>4</v>
@@ -1551,53 +1583,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9">
-        <v>4</v>
-      </c>
-      <c r="K30" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="9">
-        <v>4</v>
-      </c>
-      <c r="K31" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
@@ -1697,18 +1693,18 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="3"/>
@@ -1757,13 +1753,11 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="3"/>
     </row>
@@ -1785,29 +1779,16 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="C66" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H31"/>
+  <autoFilter ref="A1:H29"/>
   <sortState ref="A4:H32">
     <sortCondition ref="F4:F32"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1818,7 +1799,7 @@
           <x14:formula1>
             <xm:f>Statusliste!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G31</xm:sqref>
+          <xm:sqref>G2:G29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1838,22 +1819,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/kata-dosbox-agile/docs/Procut Backlog Pentagon DOSBox.xlsx
+++ b/kata-dosbox-agile/docs/Procut Backlog Pentagon DOSBox.xlsx
@@ -49,6 +49,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>René Anderes:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Priorisierungsmethode "Weighted Shortest Job First" (WSJF)
+WSJF nach Leffingwell:
+Die Variante basiert auf der Werteinschätzung der Anwender. Sie eignet sich daher gut um grob spezifizierte Themen zu priorisieren und gegeneinander abzuwägen.
+               Business Value + Time Value + Risk-bzw.Opportunity Value
+WSJF =   ________________________________________________
+                                                Job Size 
+Business Value:
+Der Mehrwert für das Unternehmen, der sich auf betriebswirtschaftliche Grössen auswirkt.
+Time Value:
+Zeitlicher Wert der Vorhaben (können durch eine frühere Fertigstellung Vorteile erzielt werden).
+Risk -/ Opportunity Value:
+Die Möglichkeit der Beseitigung von Risiken bzw. die Möglichkeit zukünftig neue Vorteile zu sichern.
+Job Size:
+Der Aufwand, der für die Umsetzung des Vorhabens notwendig ist.
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -284,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -316,6 +354,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -683,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
